--- a/mappings/CDA2FHIR_Mappings.xlsx
+++ b/mappings/CDA2FHIR_Mappings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shieldsl\OneDrive - UPMC\Documents\Projects\FHIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shieldsl\GitHubRepo\java-cda2fhir\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1953" documentId="8_{311DF31C-A010-4FD9-9CD4-229464A77E70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{59D8883C-040F-4D04-8D39-7C02E0E19FE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D0EB87-EE73-4C7C-A4B5-2519C39CBB70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31860" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{DE89F0C8-F693-423C-84F3-7B132FD7B6A6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE89F0C8-F693-423C-84F3-7B132FD7B6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Type Mappings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="593">
   <si>
     <t>C-CDA Data Type</t>
   </si>
@@ -1805,6 +1805,12 @@
   </si>
   <si>
     <t>Defaulted to urn:ihe:pcc:xphr:2007</t>
+  </si>
+  <si>
+    <t>AllergyObservations.Participants.PlayingEntity.Names</t>
+  </si>
+  <si>
+    <t>Maps to the Text property of the Codeable Concept.</t>
   </si>
 </sst>
 </file>
@@ -2181,9 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB0D42C-999E-4994-AC2F-E82D3CD3754C}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3920,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3DE392-3DD2-4956-B703-2FBDD6BA4753}">
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="A356" sqref="A356"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,19 +4160,22 @@
         <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>591</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4176,39 +4183,39 @@
         <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
         <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
         <v>192</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4216,47 +4223,47 @@
         <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -4268,70 +4275,70 @@
         <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>207</v>
       </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
       <c r="D19" t="s">
         <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>207</v>
       </c>
-      <c r="B20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" t="s">
-        <v>211</v>
-      </c>
       <c r="D20" t="s">
         <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>208</v>
+      </c>
+      <c r="G20" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4339,19 +4346,19 @@
         <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
         <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4359,19 +4366,19 @@
         <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4379,79 +4386,79 @@
         <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>207</v>
       </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
       <c r="D24" t="s">
         <v>216</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>207</v>
       </c>
-      <c r="B25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" t="s">
-        <v>220</v>
-      </c>
       <c r="D25" t="s">
         <v>216</v>
       </c>
       <c r="E25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
         <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" t="s">
         <v>220</v>
       </c>
-      <c r="B26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
       <c r="D26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
         <v>220</v>
       </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>176</v>
+      </c>
+      <c r="G26" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4459,19 +4466,19 @@
         <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
         <v>220</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4479,19 +4486,19 @@
         <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="D28" t="s">
         <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4499,76 +4506,76 @@
         <v>220</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
         <v>220</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>224</v>
       </c>
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
       <c r="D31" t="s">
         <v>175</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
-      </c>
-      <c r="G31" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>224</v>
       </c>
-      <c r="B32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
       <c r="D32" t="s">
         <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4576,19 +4583,19 @@
         <v>224</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4596,19 +4603,19 @@
         <v>224</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
         <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4616,19 +4623,19 @@
         <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4636,39 +4643,42 @@
         <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
-      </c>
-      <c r="G36" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>224</v>
       </c>
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
       <c r="D37" t="s">
         <v>216</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
         <v>176</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4679,13 +4689,13 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="G38" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4696,70 +4706,67 @@
         <v>216</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F39" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>208</v>
+      </c>
+      <c r="G40" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>177</v>
       </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
       <c r="D41" t="s">
         <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
-      </c>
-      <c r="G41" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>177</v>
       </c>
-      <c r="B42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C42" t="s">
-        <v>211</v>
-      </c>
       <c r="D42" t="s">
         <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>208</v>
+      </c>
+      <c r="G42" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4767,19 +4774,19 @@
         <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
         <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,19 +4794,19 @@
         <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
         <v>175</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4807,133 +4814,136 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>177</v>
       </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
       <c r="D46" t="s">
         <v>216</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>177</v>
       </c>
-      <c r="B47" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" t="s">
-        <v>220</v>
-      </c>
       <c r="D47" t="s">
         <v>216</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
         <v>176</v>
       </c>
       <c r="G47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="G48" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
       <c r="D49" t="s">
         <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>208</v>
-      </c>
-      <c r="G49" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" t="s">
         <v>208</v>
       </c>
-      <c r="C50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" t="s">
-        <v>78</v>
-      </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>208</v>
+      </c>
+      <c r="G50" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>230</v>
       </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
       <c r="D51" t="s">
         <v>231</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
-      </c>
-      <c r="G51" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4944,33 +4954,30 @@
         <v>231</v>
       </c>
       <c r="E52" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="G52" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>230</v>
       </c>
-      <c r="B53" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" t="s">
-        <v>148</v>
-      </c>
       <c r="D53" t="s">
         <v>231</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4978,19 +4985,19 @@
         <v>230</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
         <v>231</v>
       </c>
       <c r="E54" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4998,19 +5005,19 @@
         <v>230</v>
       </c>
       <c r="B55" t="s">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
         <v>231</v>
       </c>
       <c r="E55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5018,22 +5025,19 @@
         <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
         <v>231</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5041,22 +5045,22 @@
         <v>230</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
         <v>231</v>
       </c>
       <c r="E57" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -5064,19 +5068,22 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F58" t="s">
-        <v>199</v>
+        <v>176</v>
+      </c>
+      <c r="G58" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5084,22 +5091,19 @@
         <v>230</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="F59" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5107,56 +5111,59 @@
         <v>230</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
         <v>231</v>
       </c>
       <c r="E60" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>176</v>
+      </c>
+      <c r="G60" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>230</v>
       </c>
+      <c r="B61" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" t="s">
+        <v>247</v>
+      </c>
       <c r="D61" t="s">
         <v>231</v>
       </c>
       <c r="E61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>230</v>
       </c>
-      <c r="B62" t="s">
-        <v>252</v>
-      </c>
-      <c r="C62" t="s">
-        <v>148</v>
-      </c>
       <c r="D62" t="s">
         <v>231</v>
       </c>
       <c r="E62" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5164,22 +5171,19 @@
         <v>230</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
         <v>231</v>
       </c>
       <c r="E63" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F63" t="s">
-        <v>176</v>
-      </c>
-      <c r="G63" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5187,19 +5191,22 @@
         <v>230</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="D64" t="s">
         <v>231</v>
       </c>
       <c r="E64" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F64" t="s">
-        <v>199</v>
+        <v>176</v>
+      </c>
+      <c r="G64" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -5207,59 +5214,56 @@
         <v>230</v>
       </c>
       <c r="B65" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="D65" t="s">
         <v>231</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>230</v>
       </c>
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>148</v>
+      </c>
       <c r="D66" t="s">
         <v>231</v>
       </c>
       <c r="E66" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>259</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>230</v>
       </c>
-      <c r="B67" t="s">
-        <v>260</v>
-      </c>
-      <c r="C67" t="s">
-        <v>224</v>
-      </c>
       <c r="D67" t="s">
         <v>231</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F67" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5267,42 +5271,45 @@
         <v>230</v>
       </c>
       <c r="B68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="D68" t="s">
         <v>231</v>
       </c>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F68" t="s">
         <v>176</v>
       </c>
       <c r="G68" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="D69" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="E69" t="s">
-        <v>199</v>
+        <v>263</v>
+      </c>
+      <c r="F69" t="s">
+        <v>176</v>
       </c>
       <c r="G69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5310,19 +5317,19 @@
         <v>244</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
         <v>265</v>
       </c>
       <c r="E70" t="s">
-        <v>212</v>
-      </c>
-      <c r="F70" t="s">
-        <v>64</v>
+        <v>199</v>
+      </c>
+      <c r="G70" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5330,19 +5337,19 @@
         <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D71" t="s">
         <v>265</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5350,19 +5357,19 @@
         <v>244</v>
       </c>
       <c r="B72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
         <v>265</v>
       </c>
       <c r="E72" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5370,76 +5377,76 @@
         <v>244</v>
       </c>
       <c r="B73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>265</v>
       </c>
       <c r="E73" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="E74" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>273</v>
       </c>
+      <c r="B75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
       <c r="D75" t="s">
         <v>220</v>
       </c>
       <c r="E75" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
-        <v>208</v>
-      </c>
-      <c r="G75" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>273</v>
       </c>
-      <c r="B76" t="s">
-        <v>274</v>
-      </c>
-      <c r="C76" t="s">
-        <v>115</v>
-      </c>
       <c r="D76" t="s">
         <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>208</v>
+      </c>
+      <c r="G76" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,19 +5454,19 @@
         <v>273</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D77" t="s">
         <v>220</v>
       </c>
       <c r="E77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5467,56 +5474,59 @@
         <v>273</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
         <v>220</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="F78" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="E79" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>275</v>
       </c>
+      <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
       <c r="D80" t="s">
         <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F80" t="s">
-        <v>208</v>
-      </c>
-      <c r="G80" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -5527,33 +5537,30 @@
         <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F81" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G81" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>275</v>
       </c>
-      <c r="B82" t="s">
-        <v>277</v>
-      </c>
-      <c r="C82" t="s">
-        <v>179</v>
-      </c>
       <c r="D82" t="s">
         <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="G82" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5561,19 +5568,19 @@
         <v>275</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D83" t="s">
         <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5581,7 +5588,7 @@
         <v>275</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
         <v>40</v>
@@ -5590,13 +5597,10 @@
         <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5604,19 +5608,22 @@
         <v>275</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
         <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="G85" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5624,19 +5631,19 @@
         <v>275</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C86" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
         <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F86" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,19 +5651,19 @@
         <v>275</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>284</v>
       </c>
       <c r="D87" t="s">
         <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="F87" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5664,53 +5671,56 @@
         <v>275</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="F88" t="s">
-        <v>199</v>
-      </c>
-      <c r="G88" t="s">
-        <v>293</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>275</v>
       </c>
+      <c r="B89" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D89" t="s">
+        <v>275</v>
+      </c>
       <c r="E89" t="s">
         <v>292</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G89" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>284</v>
-      </c>
-      <c r="D90" t="s">
         <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>519</v>
+        <v>292</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="G90" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5721,90 +5731,87 @@
         <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>312</v>
+        <v>519</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>284</v>
       </c>
-      <c r="B92" t="s">
-        <v>224</v>
-      </c>
-      <c r="C92" t="s">
-        <v>288</v>
-      </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="G92" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="D93" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="E93" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="F93" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>291</v>
       </c>
+      <c r="B94" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" t="s">
+        <v>77</v>
+      </c>
       <c r="D94" t="s">
         <v>292</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F94" t="s">
-        <v>208</v>
-      </c>
-      <c r="G94" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>291</v>
       </c>
-      <c r="B95" t="s">
-        <v>36</v>
-      </c>
-      <c r="C95" t="s">
-        <v>31</v>
-      </c>
       <c r="D95" t="s">
         <v>292</v>
       </c>
       <c r="E95" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>208</v>
+      </c>
+      <c r="G95" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5812,19 +5819,19 @@
         <v>291</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D96" t="s">
         <v>292</v>
       </c>
       <c r="E96" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F96" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5832,19 +5839,19 @@
         <v>291</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="D97" t="s">
         <v>292</v>
       </c>
       <c r="E97" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F97" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5852,56 +5859,59 @@
         <v>291</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D98" t="s">
         <v>292</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="F98" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C99" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="E99" t="s">
-        <v>297</v>
+        <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>275</v>
       </c>
+      <c r="B100" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" t="s">
+        <v>295</v>
+      </c>
       <c r="D100" t="s">
         <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F100" t="s">
-        <v>122</v>
-      </c>
-      <c r="G100" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5912,50 +5922,50 @@
         <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F101" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="G101" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>295</v>
-      </c>
-      <c r="B102" t="s">
-        <v>169</v>
-      </c>
-      <c r="C102" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="D102" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="F102" t="s">
-        <v>78</v>
+        <v>176</v>
+      </c>
+      <c r="G102" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>295</v>
       </c>
+      <c r="B103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
       <c r="D103" t="s">
         <v>296</v>
       </c>
       <c r="E103" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F103" t="s">
-        <v>208</v>
-      </c>
-      <c r="G103" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5966,33 +5976,30 @@
         <v>296</v>
       </c>
       <c r="E104" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F104" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G104" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>295</v>
       </c>
-      <c r="B105" t="s">
-        <v>36</v>
-      </c>
-      <c r="C105" t="s">
-        <v>40</v>
-      </c>
       <c r="D105" t="s">
         <v>296</v>
       </c>
       <c r="E105" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="G105" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -6000,22 +6007,19 @@
         <v>295</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
         <v>296</v>
       </c>
       <c r="E106" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F106" t="s">
-        <v>152</v>
-      </c>
-      <c r="G106" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -6023,7 +6027,7 @@
         <v>295</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="C107" t="s">
         <v>87</v>
@@ -6032,21 +6036,21 @@
         <v>296</v>
       </c>
       <c r="E107" t="s">
-        <v>301</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
         <v>152</v>
       </c>
       <c r="G107" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>295</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="C108" t="s">
         <v>87</v>
@@ -6055,33 +6059,36 @@
         <v>296</v>
       </c>
       <c r="E108" t="s">
-        <v>180</v>
+        <v>301</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="G108" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>295</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="C109" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D109" t="s">
         <v>296</v>
       </c>
       <c r="E109" t="s">
+        <v>180</v>
+      </c>
+      <c r="F109" t="s">
         <v>36</v>
       </c>
-      <c r="F109" t="s">
-        <v>32</v>
+      <c r="G109" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,73 +6096,76 @@
         <v>295</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="C110" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="D110" t="s">
         <v>296</v>
       </c>
       <c r="E110" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>295</v>
       </c>
+      <c r="B111" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111" t="s">
+        <v>179</v>
+      </c>
       <c r="D111" t="s">
         <v>296</v>
       </c>
       <c r="E111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F111" t="s">
         <v>36</v>
       </c>
-      <c r="G111" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>310</v>
-      </c>
-      <c r="B112" t="s">
-        <v>169</v>
-      </c>
-      <c r="C112" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="D112" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="F112" t="s">
-        <v>78</v>
+        <v>36</v>
+      </c>
+      <c r="G112" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>310</v>
       </c>
+      <c r="B113" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" t="s">
+        <v>77</v>
+      </c>
       <c r="D113" t="s">
         <v>275</v>
       </c>
       <c r="E113" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
-      </c>
-      <c r="G113" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -6166,33 +6176,30 @@
         <v>275</v>
       </c>
       <c r="E114" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F114" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G114" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>310</v>
       </c>
-      <c r="B115" t="s">
-        <v>178</v>
-      </c>
-      <c r="C115" t="s">
-        <v>179</v>
-      </c>
       <c r="D115" t="s">
         <v>275</v>
       </c>
       <c r="E115" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="G115" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -6200,19 +6207,19 @@
         <v>310</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="C116" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D116" t="s">
         <v>275</v>
       </c>
       <c r="E116" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -6220,19 +6227,19 @@
         <v>310</v>
       </c>
       <c r="B117" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s">
         <v>275</v>
       </c>
       <c r="E117" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -6240,56 +6247,56 @@
         <v>310</v>
       </c>
       <c r="B118" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C118" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
         <v>275</v>
       </c>
       <c r="E118" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F118" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>310</v>
       </c>
+      <c r="B119" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" t="s">
+        <v>284</v>
+      </c>
       <c r="D119" t="s">
         <v>275</v>
       </c>
       <c r="E119" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="F119" t="s">
-        <v>176</v>
-      </c>
-      <c r="G119" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>310</v>
       </c>
-      <c r="B120" t="s">
-        <v>182</v>
-      </c>
-      <c r="C120" t="s">
-        <v>87</v>
-      </c>
       <c r="D120" t="s">
         <v>275</v>
       </c>
       <c r="E120" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="F120" t="s">
-        <v>75</v>
+        <v>176</v>
+      </c>
+      <c r="G120" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6297,36 +6304,39 @@
         <v>310</v>
       </c>
       <c r="B121" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D121" t="s">
         <v>275</v>
       </c>
       <c r="E121" t="s">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="F121" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>310</v>
       </c>
+      <c r="B122" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" t="s">
+        <v>314</v>
+      </c>
       <c r="D122" t="s">
         <v>275</v>
       </c>
       <c r="E122" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F122" t="s">
-        <v>122</v>
-      </c>
-      <c r="G122" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -6337,50 +6347,50 @@
         <v>275</v>
       </c>
       <c r="E123" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F123" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="G123" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>310</v>
       </c>
-      <c r="B124" t="s">
-        <v>321</v>
-      </c>
-      <c r="C124" t="s">
-        <v>295</v>
-      </c>
       <c r="D124" t="s">
         <v>275</v>
       </c>
       <c r="E124" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="F124" t="s">
-        <v>199</v>
+        <v>176</v>
+      </c>
+      <c r="G124" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>310</v>
       </c>
+      <c r="B125" t="s">
+        <v>321</v>
+      </c>
+      <c r="C125" t="s">
+        <v>295</v>
+      </c>
       <c r="D125" t="s">
         <v>275</v>
       </c>
       <c r="E125" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F125" t="s">
-        <v>122</v>
-      </c>
-      <c r="G125" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6391,39 +6401,42 @@
         <v>275</v>
       </c>
       <c r="E126" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F126" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="G126" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>310</v>
       </c>
-      <c r="B127" t="s">
-        <v>323</v>
-      </c>
-      <c r="C127" t="s">
-        <v>324</v>
-      </c>
       <c r="D127" t="s">
         <v>275</v>
       </c>
       <c r="E127" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F127" t="s">
-        <v>199</v>
+        <v>176</v>
+      </c>
+      <c r="G127" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>310</v>
       </c>
+      <c r="B128" t="s">
+        <v>323</v>
+      </c>
+      <c r="C128" t="s">
+        <v>324</v>
+      </c>
       <c r="D128" t="s">
         <v>275</v>
       </c>
@@ -6431,22 +6444,13 @@
         <v>292</v>
       </c>
       <c r="F128" t="s">
-        <v>176</v>
-      </c>
-      <c r="G128" t="s">
-        <v>325</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>310</v>
       </c>
-      <c r="B129" t="s">
-        <v>326</v>
-      </c>
-      <c r="C129" t="s">
-        <v>185</v>
-      </c>
       <c r="D129" t="s">
         <v>275</v>
       </c>
@@ -6454,16 +6458,22 @@
         <v>292</v>
       </c>
       <c r="F129" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="G129" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>310</v>
       </c>
+      <c r="B130" t="s">
+        <v>326</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
       <c r="D130" t="s">
         <v>275</v>
       </c>
@@ -6471,47 +6481,47 @@
         <v>292</v>
       </c>
       <c r="F130" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G130" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>314</v>
-      </c>
-      <c r="B131" t="s">
-        <v>169</v>
-      </c>
-      <c r="C131" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="D131" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="E131" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="F131" t="s">
-        <v>78</v>
+        <v>176</v>
+      </c>
+      <c r="G131" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>314</v>
       </c>
+      <c r="B132" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" t="s">
+        <v>77</v>
+      </c>
       <c r="D132" t="s">
         <v>296</v>
       </c>
       <c r="E132" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F132" t="s">
-        <v>208</v>
-      </c>
-      <c r="G132" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6522,13 +6532,13 @@
         <v>296</v>
       </c>
       <c r="E133" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F133" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G133" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -6539,36 +6549,30 @@
         <v>296</v>
       </c>
       <c r="E134" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="G134" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>314</v>
       </c>
-      <c r="B135" t="s">
-        <v>195</v>
-      </c>
-      <c r="C135" t="s">
-        <v>130</v>
-      </c>
       <c r="D135" t="s">
         <v>296</v>
       </c>
       <c r="E135" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F135" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -6576,7 +6580,7 @@
         <v>314</v>
       </c>
       <c r="B136" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="C136" t="s">
         <v>130</v>
@@ -6585,53 +6589,56 @@
         <v>296</v>
       </c>
       <c r="E136" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="F136" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>314</v>
       </c>
       <c r="B137" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="C137" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D137" t="s">
         <v>296</v>
       </c>
       <c r="E137" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>314</v>
       </c>
       <c r="B138" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D138" t="s">
         <v>296</v>
       </c>
       <c r="E138" t="s">
+        <v>318</v>
+      </c>
+      <c r="F138" t="s">
         <v>36</v>
       </c>
-      <c r="F138" t="s">
-        <v>32</v>
+      <c r="G138" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6639,101 +6646,101 @@
         <v>314</v>
       </c>
       <c r="B139" t="s">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="C139" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
         <v>296</v>
       </c>
       <c r="E139" t="s">
-        <v>318</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>314</v>
       </c>
+      <c r="B140" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" t="s">
+        <v>179</v>
+      </c>
       <c r="D140" t="s">
         <v>296</v>
       </c>
       <c r="E140" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F140" t="s">
         <v>36</v>
       </c>
-      <c r="G140" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D141" t="s">
-        <v>292</v>
+        <v>296</v>
+      </c>
+      <c r="E141" t="s">
+        <v>320</v>
+      </c>
+      <c r="F141" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>324</v>
       </c>
-      <c r="B142" t="s">
-        <v>169</v>
-      </c>
-      <c r="C142" t="s">
-        <v>77</v>
-      </c>
       <c r="D142" t="s">
         <v>292</v>
-      </c>
-      <c r="E142" t="s">
-        <v>78</v>
-      </c>
-      <c r="F142" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>324</v>
       </c>
+      <c r="B143" t="s">
+        <v>169</v>
+      </c>
+      <c r="C143" t="s">
+        <v>77</v>
+      </c>
       <c r="D143" t="s">
         <v>292</v>
       </c>
       <c r="E143" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F143" t="s">
-        <v>208</v>
-      </c>
-      <c r="G143" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>324</v>
       </c>
-      <c r="B144" t="s">
-        <v>36</v>
-      </c>
-      <c r="C144" t="s">
-        <v>31</v>
-      </c>
       <c r="D144" t="s">
         <v>292</v>
       </c>
       <c r="E144" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>208</v>
+      </c>
+      <c r="G144" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -6741,19 +6748,19 @@
         <v>324</v>
       </c>
       <c r="B145" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D145" t="s">
         <v>292</v>
       </c>
       <c r="E145" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F145" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6761,19 +6768,19 @@
         <v>324</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C146" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="D146" t="s">
         <v>292</v>
       </c>
       <c r="E146" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F146" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6781,139 +6788,136 @@
         <v>324</v>
       </c>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D147" t="s">
         <v>292</v>
       </c>
       <c r="E147" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="F147" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B148" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C148" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="E148" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="F148" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>327</v>
       </c>
+      <c r="B149" t="s">
+        <v>169</v>
+      </c>
+      <c r="C149" t="s">
+        <v>77</v>
+      </c>
       <c r="D149" t="s">
         <v>328</v>
       </c>
       <c r="E149" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F149" t="s">
-        <v>208</v>
-      </c>
-      <c r="G149" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>327</v>
       </c>
-      <c r="B150" t="s">
-        <v>182</v>
-      </c>
-      <c r="C150" t="s">
-        <v>87</v>
-      </c>
       <c r="D150" t="s">
         <v>328</v>
       </c>
       <c r="E150" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="G150" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>327</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D151" t="s">
         <v>328</v>
       </c>
       <c r="E151" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>327</v>
       </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" t="s">
+        <v>31</v>
+      </c>
       <c r="D152" t="s">
         <v>328</v>
       </c>
       <c r="E152" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="F152" t="s">
-        <v>176</v>
-      </c>
-      <c r="G152" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>327</v>
       </c>
-      <c r="B153" t="s">
-        <v>329</v>
-      </c>
-      <c r="C153" t="s">
-        <v>330</v>
-      </c>
       <c r="D153" t="s">
         <v>328</v>
       </c>
       <c r="E153" t="s">
-        <v>331</v>
+        <v>171</v>
       </c>
       <c r="F153" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="G153" t="s">
-        <v>333</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6921,7 +6925,7 @@
         <v>327</v>
       </c>
       <c r="B154" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C154" t="s">
         <v>330</v>
@@ -6930,13 +6934,13 @@
         <v>328</v>
       </c>
       <c r="E154" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F154" t="s">
-        <v>175</v>
+        <v>332</v>
       </c>
       <c r="G154" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6944,96 +6948,96 @@
         <v>327</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="C155" t="s">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="D155" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E155" t="s">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="F155" t="s">
-        <v>78</v>
+        <v>175</v>
+      </c>
+      <c r="G155" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>327</v>
       </c>
+      <c r="B156" t="s">
+        <v>169</v>
+      </c>
+      <c r="C156" t="s">
+        <v>77</v>
+      </c>
       <c r="D156" t="s">
         <v>332</v>
       </c>
       <c r="E156" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F156" t="s">
-        <v>208</v>
-      </c>
-      <c r="G156" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>327</v>
       </c>
-      <c r="B157" t="s">
-        <v>182</v>
-      </c>
-      <c r="C157" t="s">
-        <v>87</v>
-      </c>
       <c r="D157" t="s">
         <v>332</v>
       </c>
       <c r="E157" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="F157" t="s">
-        <v>75</v>
+        <v>208</v>
+      </c>
+      <c r="G157" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>327</v>
       </c>
+      <c r="B158" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" t="s">
+        <v>87</v>
+      </c>
       <c r="D158" t="s">
         <v>332</v>
       </c>
       <c r="E158" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
-      </c>
-      <c r="G158" t="s">
-        <v>337</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>327</v>
       </c>
-      <c r="B159" t="s">
-        <v>338</v>
-      </c>
-      <c r="C159" t="s">
-        <v>224</v>
-      </c>
       <c r="D159" t="s">
         <v>332</v>
       </c>
       <c r="E159" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="F159" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -7041,19 +7045,22 @@
         <v>327</v>
       </c>
       <c r="B160" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="D160" t="s">
         <v>332</v>
       </c>
       <c r="E160" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="G160" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -7061,67 +7068,64 @@
         <v>327</v>
       </c>
       <c r="B161" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="C161" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D161" t="s">
         <v>332</v>
       </c>
       <c r="E161" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F161" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>327</v>
       </c>
+      <c r="B162" t="s">
+        <v>182</v>
+      </c>
+      <c r="C162" t="s">
+        <v>87</v>
+      </c>
+      <c r="D162" t="s">
+        <v>332</v>
+      </c>
       <c r="E162" t="s">
+        <v>342</v>
+      </c>
+      <c r="F162" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>327</v>
+      </c>
+      <c r="E163" t="s">
         <v>170</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F163" t="s">
         <v>176</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G163" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>343</v>
-      </c>
-      <c r="B163" t="s">
-        <v>182</v>
-      </c>
-      <c r="C163" t="s">
-        <v>87</v>
-      </c>
-      <c r="D163" t="s">
-        <v>332</v>
-      </c>
-      <c r="E163" t="s">
-        <v>78</v>
-      </c>
-      <c r="F163" t="s">
-        <v>78</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>343</v>
       </c>
       <c r="B164" t="s">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="C164" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D164" t="s">
         <v>332</v>
@@ -7133,44 +7137,47 @@
         <v>78</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>343</v>
       </c>
+      <c r="B165" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" t="s">
+        <v>115</v>
+      </c>
       <c r="D165" t="s">
         <v>332</v>
       </c>
       <c r="E165" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F165" t="s">
-        <v>208</v>
-      </c>
-      <c r="G165" t="s">
-        <v>209</v>
+        <v>78</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>343</v>
       </c>
-      <c r="B166" t="s">
-        <v>348</v>
-      </c>
-      <c r="C166" t="s">
-        <v>87</v>
-      </c>
       <c r="D166" t="s">
         <v>332</v>
       </c>
       <c r="E166" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="F166" t="s">
-        <v>75</v>
+        <v>208</v>
+      </c>
+      <c r="G166" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -7178,22 +7185,19 @@
         <v>343</v>
       </c>
       <c r="B167" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="C167" t="s">
-        <v>349</v>
+        <v>87</v>
       </c>
       <c r="D167" t="s">
         <v>332</v>
       </c>
       <c r="E167" t="s">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="F167" t="s">
-        <v>176</v>
-      </c>
-      <c r="G167" t="s">
-        <v>350</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -7201,19 +7205,22 @@
         <v>343</v>
       </c>
       <c r="B168" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="C168" t="s">
-        <v>87</v>
+        <v>349</v>
       </c>
       <c r="D168" t="s">
         <v>332</v>
       </c>
       <c r="E168" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F168" t="s">
-        <v>75</v>
+        <v>176</v>
+      </c>
+      <c r="G168" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -7221,93 +7228,93 @@
         <v>343</v>
       </c>
       <c r="B169" t="s">
-        <v>351</v>
+        <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D169" t="s">
         <v>332</v>
       </c>
       <c r="E169" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>343</v>
       </c>
+      <c r="B170" t="s">
+        <v>351</v>
+      </c>
+      <c r="C170" t="s">
+        <v>31</v>
+      </c>
       <c r="D170" t="s">
         <v>332</v>
       </c>
       <c r="E170" t="s">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="F170" t="s">
-        <v>176</v>
-      </c>
-      <c r="G170" t="s">
-        <v>352</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>353</v>
-      </c>
-      <c r="B171" t="s">
-        <v>169</v>
-      </c>
-      <c r="C171" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="D171" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="E171" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="F171" t="s">
-        <v>78</v>
+        <v>176</v>
+      </c>
+      <c r="G171" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>353</v>
       </c>
+      <c r="B172" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172" t="s">
+        <v>77</v>
+      </c>
       <c r="D172" t="s">
         <v>354</v>
       </c>
       <c r="E172" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F172" t="s">
-        <v>208</v>
-      </c>
-      <c r="G172" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>353</v>
       </c>
-      <c r="B173" t="s">
-        <v>344</v>
-      </c>
-      <c r="C173" t="s">
-        <v>355</v>
-      </c>
       <c r="D173" t="s">
         <v>354</v>
       </c>
       <c r="E173" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>208</v>
+      </c>
+      <c r="G173" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -7315,22 +7322,19 @@
         <v>353</v>
       </c>
       <c r="B174" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C174" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D174" t="s">
         <v>354</v>
       </c>
       <c r="E174" t="s">
-        <v>358</v>
+        <v>234</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
-      </c>
-      <c r="G174" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -7338,56 +7342,62 @@
         <v>353</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
+        <v>356</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="D175" t="s">
         <v>354</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>358</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G175" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D176" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E176" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>360</v>
       </c>
+      <c r="B177" t="s">
+        <v>169</v>
+      </c>
+      <c r="C177" t="s">
+        <v>77</v>
+      </c>
       <c r="D177" t="s">
         <v>361</v>
       </c>
       <c r="E177" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F177" t="s">
-        <v>208</v>
-      </c>
-      <c r="G177" t="s">
-        <v>362</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7398,33 +7408,30 @@
         <v>361</v>
       </c>
       <c r="E178" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="F178" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G178" t="s">
-        <v>242</v>
+        <v>362</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>360</v>
       </c>
-      <c r="B179" t="s">
-        <v>178</v>
-      </c>
-      <c r="C179" t="s">
-        <v>179</v>
-      </c>
       <c r="D179" t="s">
         <v>361</v>
       </c>
       <c r="E179" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="G179" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7432,19 +7439,19 @@
         <v>360</v>
       </c>
       <c r="B180" t="s">
-        <v>363</v>
+        <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D180" t="s">
         <v>361</v>
       </c>
       <c r="E180" t="s">
-        <v>364</v>
+        <v>232</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -7452,22 +7459,19 @@
         <v>360</v>
       </c>
       <c r="B181" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C181" t="s">
-        <v>366</v>
+        <v>40</v>
       </c>
       <c r="D181" t="s">
         <v>361</v>
       </c>
       <c r="E181" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
-      </c>
-      <c r="G181" t="s">
-        <v>368</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7475,19 +7479,22 @@
         <v>360</v>
       </c>
       <c r="B182" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C182" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="D182" t="s">
         <v>361</v>
       </c>
       <c r="E182" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G182" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7495,19 +7502,19 @@
         <v>360</v>
       </c>
       <c r="B183" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C183" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="D183" t="s">
         <v>361</v>
       </c>
       <c r="E183" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F183" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7515,19 +7522,19 @@
         <v>360</v>
       </c>
       <c r="B184" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="D184" t="s">
         <v>361</v>
       </c>
       <c r="E184" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7535,19 +7542,19 @@
         <v>360</v>
       </c>
       <c r="B185" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C185" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D185" t="s">
         <v>361</v>
       </c>
       <c r="E185" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="F185" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7555,19 +7562,19 @@
         <v>360</v>
       </c>
       <c r="B186" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D186" t="s">
         <v>361</v>
       </c>
       <c r="E186" t="s">
-        <v>376</v>
+        <v>212</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7575,53 +7582,59 @@
         <v>360</v>
       </c>
       <c r="B187" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C187" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D187" t="s">
         <v>361</v>
       </c>
       <c r="E187" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F187" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="B188" t="s">
-        <v>169</v>
+        <v>377</v>
       </c>
       <c r="C188" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="D188" t="s">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="E188" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="F188" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>201</v>
       </c>
+      <c r="B189" t="s">
+        <v>169</v>
+      </c>
+      <c r="C189" t="s">
+        <v>77</v>
+      </c>
       <c r="D189" t="s">
         <v>201</v>
       </c>
       <c r="E189" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F189" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -7632,33 +7645,27 @@
         <v>201</v>
       </c>
       <c r="E190" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F190" t="s">
-        <v>176</v>
-      </c>
-      <c r="G190" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>201</v>
       </c>
-      <c r="B191" t="s">
-        <v>178</v>
-      </c>
-      <c r="C191" t="s">
-        <v>179</v>
-      </c>
       <c r="D191" t="s">
         <v>201</v>
       </c>
       <c r="E191" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="G191" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -7666,19 +7673,19 @@
         <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="C192" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D192" t="s">
         <v>201</v>
       </c>
       <c r="E192" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -7686,7 +7693,7 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="C193" t="s">
         <v>40</v>
@@ -7695,7 +7702,7 @@
         <v>201</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="F193" t="s">
         <v>32</v>
@@ -7706,22 +7713,19 @@
         <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="C194" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="D194" t="s">
         <v>201</v>
       </c>
       <c r="E194" t="s">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>176</v>
-      </c>
-      <c r="G194" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -7729,19 +7733,22 @@
         <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C195" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="D195" t="s">
         <v>201</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>283</v>
       </c>
       <c r="F195" t="s">
-        <v>75</v>
+        <v>176</v>
+      </c>
+      <c r="G195" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -7749,22 +7756,19 @@
         <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
       <c r="C196" t="s">
-        <v>382</v>
+        <v>87</v>
       </c>
       <c r="D196" t="s">
         <v>201</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>176</v>
-      </c>
-      <c r="G196" t="s">
-        <v>384</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -7772,19 +7776,22 @@
         <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>472</v>
+        <v>380</v>
       </c>
       <c r="C197" t="s">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="D197" t="s">
         <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="G197" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -7792,25 +7799,22 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>303</v>
+        <v>472</v>
       </c>
       <c r="C198" t="s">
-        <v>474</v>
+        <v>40</v>
       </c>
       <c r="D198" t="s">
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F198" t="s">
         <v>32</v>
       </c>
-      <c r="G198" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -7818,19 +7822,19 @@
         <v>303</v>
       </c>
       <c r="C199" t="s">
-        <v>40</v>
+        <v>474</v>
       </c>
       <c r="D199" t="s">
         <v>201</v>
       </c>
       <c r="E199" t="s">
-        <v>28</v>
+        <v>475</v>
       </c>
       <c r="F199" t="s">
         <v>32</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>477</v>
+      <c r="G199" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7841,7 +7845,7 @@
         <v>303</v>
       </c>
       <c r="C200" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D200" t="s">
         <v>201</v>
@@ -7850,7 +7854,7 @@
         <v>28</v>
       </c>
       <c r="F200" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>477</v>
@@ -7864,7 +7868,7 @@
         <v>303</v>
       </c>
       <c r="C201" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="D201" t="s">
         <v>201</v>
@@ -7873,7 +7877,7 @@
         <v>28</v>
       </c>
       <c r="F201" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>477</v>
@@ -7887,7 +7891,7 @@
         <v>303</v>
       </c>
       <c r="C202" t="s">
-        <v>413</v>
+        <v>133</v>
       </c>
       <c r="D202" t="s">
         <v>201</v>
@@ -7896,7 +7900,7 @@
         <v>28</v>
       </c>
       <c r="F202" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>477</v>
@@ -7910,7 +7914,7 @@
         <v>303</v>
       </c>
       <c r="C203" t="s">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="D203" t="s">
         <v>201</v>
@@ -7919,7 +7923,7 @@
         <v>28</v>
       </c>
       <c r="F203" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>477</v>
@@ -7933,7 +7937,7 @@
         <v>303</v>
       </c>
       <c r="C204" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D204" t="s">
         <v>201</v>
@@ -7942,7 +7946,7 @@
         <v>28</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>477</v>
@@ -7956,7 +7960,7 @@
         <v>303</v>
       </c>
       <c r="C205" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="D205" t="s">
         <v>201</v>
@@ -7965,33 +7969,33 @@
         <v>28</v>
       </c>
       <c r="F205" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>478</v>
+        <v>303</v>
       </c>
       <c r="C206" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="D206" t="s">
         <v>201</v>
       </c>
       <c r="E206" t="s">
-        <v>479</v>
+        <v>28</v>
       </c>
       <c r="F206" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -7999,22 +8003,22 @@
         <v>201</v>
       </c>
       <c r="B207" t="s">
-        <v>173</v>
+        <v>478</v>
       </c>
       <c r="C207" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="D207" t="s">
         <v>201</v>
       </c>
       <c r="E207" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="F207" t="s">
         <v>176</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -8022,19 +8026,22 @@
         <v>201</v>
       </c>
       <c r="B208" t="s">
-        <v>482</v>
+        <v>173</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="D208" t="s">
         <v>201</v>
       </c>
       <c r="E208" t="s">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8042,19 +8049,19 @@
         <v>201</v>
       </c>
       <c r="B209" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C209" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D209" t="s">
         <v>201</v>
       </c>
       <c r="E209" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F209" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8062,19 +8069,19 @@
         <v>201</v>
       </c>
       <c r="B210" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="D210" t="s">
         <v>201</v>
       </c>
       <c r="E210" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -8082,19 +8089,19 @@
         <v>201</v>
       </c>
       <c r="B211" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C211" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D211" t="s">
         <v>201</v>
       </c>
       <c r="E211" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F211" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -8102,7 +8109,7 @@
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C212" t="s">
         <v>129</v>
@@ -8111,7 +8118,7 @@
         <v>201</v>
       </c>
       <c r="E212" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F212" t="s">
         <v>105</v>
@@ -8122,19 +8129,19 @@
         <v>201</v>
       </c>
       <c r="B213" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="D213" t="s">
         <v>201</v>
       </c>
       <c r="E213" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -8142,73 +8149,76 @@
         <v>201</v>
       </c>
       <c r="B214" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C214" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D214" t="s">
         <v>201</v>
       </c>
       <c r="E214" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F214" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="B215" t="s">
-        <v>386</v>
+        <v>494</v>
       </c>
       <c r="C215" t="s">
-        <v>385</v>
+        <v>115</v>
       </c>
       <c r="D215" t="s">
-        <v>383</v>
-      </c>
-      <c r="G215" t="s">
-        <v>387</v>
+        <v>201</v>
+      </c>
+      <c r="E215" t="s">
+        <v>495</v>
+      </c>
+      <c r="F215" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>381</v>
+      </c>
+      <c r="B216" t="s">
+        <v>386</v>
+      </c>
+      <c r="C216" t="s">
         <v>385</v>
-      </c>
-      <c r="B216" t="s">
-        <v>169</v>
-      </c>
-      <c r="C216" t="s">
-        <v>77</v>
       </c>
       <c r="D216" t="s">
         <v>383</v>
       </c>
-      <c r="E216" t="s">
-        <v>78</v>
-      </c>
-      <c r="F216" t="s">
-        <v>78</v>
+      <c r="G216" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>385</v>
       </c>
+      <c r="B217" t="s">
+        <v>169</v>
+      </c>
+      <c r="C217" t="s">
+        <v>77</v>
+      </c>
       <c r="D217" t="s">
         <v>383</v>
       </c>
       <c r="E217" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F217" t="s">
-        <v>208</v>
-      </c>
-      <c r="G217" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -8219,53 +8229,50 @@
         <v>383</v>
       </c>
       <c r="E218" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F218" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G218" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>385</v>
       </c>
-      <c r="B219" t="s">
-        <v>388</v>
-      </c>
-      <c r="C219" t="s">
-        <v>31</v>
-      </c>
       <c r="D219" t="s">
         <v>383</v>
       </c>
       <c r="E219" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="G219" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B220" t="s">
-        <v>213</v>
+        <v>388</v>
       </c>
       <c r="C220" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D220" t="s">
-        <v>265</v>
+        <v>383</v>
       </c>
       <c r="E220" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="F220" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -8273,19 +8280,19 @@
         <v>389</v>
       </c>
       <c r="B221" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C221" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="D221" t="s">
         <v>265</v>
       </c>
       <c r="E221" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="F221" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -8293,19 +8300,19 @@
         <v>389</v>
       </c>
       <c r="B222" t="s">
-        <v>390</v>
+        <v>214</v>
       </c>
       <c r="C222" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="D222" t="s">
         <v>265</v>
       </c>
       <c r="E222" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F222" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -8313,56 +8320,59 @@
         <v>389</v>
       </c>
       <c r="B223" t="s">
-        <v>36</v>
+        <v>390</v>
       </c>
       <c r="C223" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D223" t="s">
         <v>265</v>
       </c>
       <c r="E223" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B224" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="C224" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D224" t="s">
-        <v>392</v>
+        <v>265</v>
       </c>
       <c r="E224" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="F224" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>391</v>
       </c>
+      <c r="B225" t="s">
+        <v>169</v>
+      </c>
+      <c r="C225" t="s">
+        <v>77</v>
+      </c>
       <c r="D225" t="s">
         <v>392</v>
       </c>
       <c r="E225" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F225" t="s">
-        <v>208</v>
-      </c>
-      <c r="G225" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -8373,33 +8383,30 @@
         <v>392</v>
       </c>
       <c r="E226" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F226" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G226" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>391</v>
       </c>
-      <c r="B227" t="s">
-        <v>393</v>
-      </c>
-      <c r="C227" t="s">
-        <v>30</v>
-      </c>
       <c r="D227" t="s">
         <v>392</v>
       </c>
       <c r="E227" t="s">
-        <v>394</v>
+        <v>170</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>176</v>
+      </c>
+      <c r="G227" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -8407,19 +8414,19 @@
         <v>391</v>
       </c>
       <c r="B228" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C228" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="D228" t="s">
         <v>392</v>
       </c>
       <c r="E228" t="s">
-        <v>149</v>
+        <v>394</v>
       </c>
       <c r="F228" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -8427,19 +8434,19 @@
         <v>391</v>
       </c>
       <c r="B229" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C229" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="D229" t="s">
         <v>392</v>
       </c>
       <c r="E229" t="s">
-        <v>397</v>
+        <v>149</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -8447,19 +8454,19 @@
         <v>391</v>
       </c>
       <c r="B230" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C230" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D230" t="s">
         <v>392</v>
       </c>
       <c r="E230" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F230" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -8467,22 +8474,19 @@
         <v>391</v>
       </c>
       <c r="B231" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C231" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="D231" t="s">
         <v>392</v>
       </c>
       <c r="E231" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F231" t="s">
-        <v>176</v>
-      </c>
-      <c r="G231" t="s">
-        <v>402</v>
+        <v>115</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -8490,59 +8494,62 @@
         <v>391</v>
       </c>
       <c r="B232" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C232" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D232" t="s">
         <v>392</v>
       </c>
       <c r="E232" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F232" t="s">
         <v>176</v>
       </c>
       <c r="G232" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>391</v>
       </c>
+      <c r="B233" t="s">
+        <v>405</v>
+      </c>
+      <c r="C233" t="s">
+        <v>224</v>
+      </c>
       <c r="D233" t="s">
         <v>392</v>
       </c>
       <c r="E233" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F233" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="G233" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>391</v>
       </c>
-      <c r="B234" t="s">
-        <v>408</v>
-      </c>
-      <c r="C234" t="s">
-        <v>40</v>
-      </c>
       <c r="D234" t="s">
         <v>392</v>
       </c>
       <c r="E234" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F234" t="s">
         <v>32</v>
+      </c>
+      <c r="G234" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -8550,16 +8557,16 @@
         <v>391</v>
       </c>
       <c r="B235" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C235" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D235" t="s">
         <v>392</v>
       </c>
       <c r="E235" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F235" t="s">
         <v>32</v>
@@ -8570,19 +8577,19 @@
         <v>391</v>
       </c>
       <c r="B236" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C236" t="s">
-        <v>413</v>
+        <v>31</v>
       </c>
       <c r="D236" t="s">
         <v>392</v>
       </c>
       <c r="E236" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F236" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -8590,19 +8597,19 @@
         <v>391</v>
       </c>
       <c r="B237" t="s">
-        <v>178</v>
+        <v>412</v>
       </c>
       <c r="C237" t="s">
-        <v>179</v>
+        <v>413</v>
       </c>
       <c r="D237" t="s">
         <v>392</v>
       </c>
       <c r="E237" t="s">
-        <v>232</v>
+        <v>412</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -8610,22 +8617,19 @@
         <v>391</v>
       </c>
       <c r="B238" t="s">
-        <v>414</v>
+        <v>178</v>
       </c>
       <c r="C238" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D238" t="s">
         <v>392</v>
       </c>
       <c r="E238" t="s">
-        <v>415</v>
+        <v>232</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
-      </c>
-      <c r="G238" t="s">
-        <v>416</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -8633,7 +8637,7 @@
         <v>391</v>
       </c>
       <c r="B239" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C239" t="s">
         <v>40</v>
@@ -8642,13 +8646,13 @@
         <v>392</v>
       </c>
       <c r="E239" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F239" t="s">
         <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -8656,39 +8660,45 @@
         <v>391</v>
       </c>
       <c r="B240" t="s">
-        <v>192</v>
+        <v>417</v>
       </c>
       <c r="C240" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="D240" t="s">
         <v>392</v>
       </c>
       <c r="E240" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F240" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>391</v>
       </c>
+      <c r="B241" t="s">
+        <v>192</v>
+      </c>
+      <c r="C241" t="s">
+        <v>201</v>
+      </c>
       <c r="D241" t="s">
         <v>392</v>
       </c>
       <c r="E241" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F241" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="G241" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -8699,36 +8709,30 @@
         <v>392</v>
       </c>
       <c r="E242" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="G242" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>427</v>
-      </c>
-      <c r="B243" t="s">
-        <v>428</v>
-      </c>
-      <c r="C243" t="s">
-        <v>179</v>
+        <v>391</v>
       </c>
       <c r="D243" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="E243" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G243" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -8736,39 +8740,42 @@
         <v>427</v>
       </c>
       <c r="B244" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C244" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="D244" t="s">
         <v>426</v>
       </c>
       <c r="E244" t="s">
-        <v>431</v>
+        <v>56</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="G244" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B245" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C245" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D245" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E245" t="s">
-        <v>36</v>
+        <v>431</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -8776,19 +8783,19 @@
         <v>432</v>
       </c>
       <c r="B246" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C246" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D246" t="s">
         <v>433</v>
       </c>
       <c r="E246" t="s">
-        <v>436</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -8796,76 +8803,79 @@
         <v>432</v>
       </c>
       <c r="B247" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C247" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="D247" t="s">
         <v>433</v>
       </c>
       <c r="E247" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="F247" t="s">
-        <v>176</v>
-      </c>
-      <c r="G247" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>432</v>
       </c>
+      <c r="B248" t="s">
+        <v>437</v>
+      </c>
+      <c r="C248" t="s">
+        <v>220</v>
+      </c>
       <c r="D248" t="s">
         <v>433</v>
       </c>
       <c r="E248" t="s">
-        <v>208</v>
+        <v>401</v>
       </c>
       <c r="F248" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="G248" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>438</v>
-      </c>
-      <c r="B249" t="s">
-        <v>169</v>
-      </c>
-      <c r="C249" t="s">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="D249" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E249" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="F249" t="s">
-        <v>78</v>
+        <v>208</v>
+      </c>
+      <c r="G249" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>438</v>
       </c>
+      <c r="B250" t="s">
+        <v>169</v>
+      </c>
+      <c r="C250" t="s">
+        <v>77</v>
+      </c>
       <c r="D250" t="s">
         <v>439</v>
       </c>
       <c r="E250" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F250" t="s">
-        <v>208</v>
-      </c>
-      <c r="G250" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -8876,33 +8886,30 @@
         <v>439</v>
       </c>
       <c r="E251" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F251" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G251" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>438</v>
       </c>
-      <c r="B252" t="s">
-        <v>178</v>
-      </c>
-      <c r="C252" t="s">
-        <v>179</v>
-      </c>
       <c r="D252" t="s">
         <v>439</v>
       </c>
       <c r="E252" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="G252" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -8910,22 +8917,19 @@
         <v>438</v>
       </c>
       <c r="B253" t="s">
-        <v>441</v>
+        <v>178</v>
       </c>
       <c r="C253" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D253" t="s">
         <v>439</v>
       </c>
       <c r="E253" t="s">
-        <v>440</v>
+        <v>232</v>
       </c>
       <c r="F253" t="s">
-        <v>176</v>
-      </c>
-      <c r="G253" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -8933,22 +8937,22 @@
         <v>438</v>
       </c>
       <c r="B254" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C254" t="s">
-        <v>432</v>
+        <v>177</v>
       </c>
       <c r="D254" t="s">
         <v>439</v>
       </c>
       <c r="E254" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F254" t="s">
         <v>176</v>
       </c>
       <c r="G254" t="s">
-        <v>443</v>
+        <v>255</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -8956,22 +8960,22 @@
         <v>438</v>
       </c>
       <c r="B255" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="C255" t="s">
-        <v>87</v>
+        <v>432</v>
       </c>
       <c r="D255" t="s">
         <v>439</v>
       </c>
       <c r="E255" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="F255" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="G255" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -8982,19 +8986,19 @@
         <v>395</v>
       </c>
       <c r="C256" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D256" t="s">
         <v>439</v>
       </c>
       <c r="E256" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
       <c r="F256" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G256" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -9002,19 +9006,22 @@
         <v>438</v>
       </c>
       <c r="B257" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C257" t="s">
-        <v>413</v>
+        <v>89</v>
       </c>
       <c r="D257" t="s">
         <v>439</v>
       </c>
       <c r="E257" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F257" t="s">
-        <v>105</v>
+        <v>90</v>
+      </c>
+      <c r="G257" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -9022,19 +9029,19 @@
         <v>438</v>
       </c>
       <c r="B258" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C258" t="s">
-        <v>31</v>
+        <v>413</v>
       </c>
       <c r="D258" t="s">
         <v>439</v>
       </c>
       <c r="E258" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -9042,19 +9049,19 @@
         <v>438</v>
       </c>
       <c r="B259" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="C259" t="s">
-        <v>413</v>
+        <v>31</v>
       </c>
       <c r="D259" t="s">
         <v>439</v>
       </c>
       <c r="E259" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F259" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -9062,19 +9069,19 @@
         <v>438</v>
       </c>
       <c r="B260" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C260" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="D260" t="s">
         <v>439</v>
       </c>
       <c r="E260" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F260" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -9082,22 +9089,19 @@
         <v>438</v>
       </c>
       <c r="B261" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="C261" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
       <c r="D261" t="s">
         <v>439</v>
       </c>
       <c r="E261" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F261" t="s">
-        <v>115</v>
-      </c>
-      <c r="G261" t="s">
-        <v>455</v>
+        <v>109</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -9105,10 +9109,10 @@
         <v>438</v>
       </c>
       <c r="B262" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="C262" t="s">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="D262" t="s">
         <v>439</v>
@@ -9120,7 +9124,7 @@
         <v>115</v>
       </c>
       <c r="G262" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -9137,50 +9141,56 @@
         <v>439</v>
       </c>
       <c r="E263" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F263" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="G263" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B264" t="s">
-        <v>169</v>
+        <v>321</v>
       </c>
       <c r="C264" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="D264" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="E264" t="s">
-        <v>78</v>
+        <v>457</v>
       </c>
       <c r="F264" t="s">
-        <v>78</v>
+        <v>176</v>
+      </c>
+      <c r="G264" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>459</v>
       </c>
+      <c r="B265" t="s">
+        <v>169</v>
+      </c>
+      <c r="C265" t="s">
+        <v>77</v>
+      </c>
       <c r="D265" t="s">
         <v>459</v>
       </c>
       <c r="E265" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F265" t="s">
-        <v>208</v>
-      </c>
-      <c r="G265" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -9191,33 +9201,30 @@
         <v>459</v>
       </c>
       <c r="E266" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F266" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G266" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>459</v>
       </c>
-      <c r="B267" t="s">
-        <v>178</v>
-      </c>
-      <c r="C267" t="s">
-        <v>179</v>
-      </c>
       <c r="D267" t="s">
         <v>459</v>
       </c>
       <c r="E267" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="G267" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -9225,65 +9232,62 @@
         <v>459</v>
       </c>
       <c r="B268" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="C268" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D268" t="s">
         <v>459</v>
       </c>
       <c r="E268" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="F268" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>459</v>
       </c>
       <c r="B269" t="s">
-        <v>460</v>
+        <v>36</v>
       </c>
       <c r="C269" t="s">
-        <v>461</v>
+        <v>40</v>
       </c>
       <c r="D269" t="s">
         <v>459</v>
       </c>
       <c r="E269" t="s">
-        <v>433</v>
+        <v>234</v>
       </c>
       <c r="F269" t="s">
-        <v>176</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>459</v>
       </c>
       <c r="B270" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="C270" t="s">
-        <v>224</v>
+        <v>461</v>
       </c>
       <c r="D270" t="s">
         <v>459</v>
       </c>
       <c r="E270" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="F270" t="s">
         <v>176</v>
       </c>
-      <c r="G270" t="s">
-        <v>465</v>
+      <c r="G270" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -9291,19 +9295,22 @@
         <v>459</v>
       </c>
       <c r="B271" t="s">
-        <v>99</v>
+        <v>405</v>
       </c>
       <c r="C271" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D271" t="s">
         <v>459</v>
       </c>
       <c r="E271" t="s">
-        <v>99</v>
+        <v>464</v>
       </c>
       <c r="F271" t="s">
-        <v>105</v>
+        <v>176</v>
+      </c>
+      <c r="G271" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -9311,22 +9318,19 @@
         <v>459</v>
       </c>
       <c r="B272" t="s">
-        <v>395</v>
+        <v>99</v>
       </c>
       <c r="C272" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D272" t="s">
         <v>459</v>
       </c>
       <c r="E272" t="s">
-        <v>466</v>
+        <v>99</v>
       </c>
       <c r="F272" t="s">
-        <v>152</v>
-      </c>
-      <c r="G272" t="s">
-        <v>467</v>
+        <v>105</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -9343,13 +9347,13 @@
         <v>459</v>
       </c>
       <c r="E273" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F273" t="s">
         <v>152</v>
       </c>
       <c r="G273" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -9366,10 +9370,13 @@
         <v>459</v>
       </c>
       <c r="E274" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F274" t="s">
         <v>152</v>
+      </c>
+      <c r="G274" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -9377,90 +9384,90 @@
         <v>459</v>
       </c>
       <c r="B275" t="s">
-        <v>99</v>
+        <v>395</v>
       </c>
       <c r="C275" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D275" t="s">
         <v>459</v>
       </c>
       <c r="E275" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F275" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>461</v>
+        <v>459</v>
+      </c>
+      <c r="B276" t="s">
+        <v>99</v>
       </c>
       <c r="C276" t="s">
-        <v>432</v>
+        <v>98</v>
       </c>
       <c r="D276" t="s">
-        <v>433</v>
-      </c>
-      <c r="G276" t="s">
-        <v>463</v>
+        <v>459</v>
+      </c>
+      <c r="E276" t="s">
+        <v>471</v>
+      </c>
+      <c r="F276" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>240</v>
-      </c>
-      <c r="B277" t="s">
-        <v>169</v>
+        <v>461</v>
       </c>
       <c r="C277" t="s">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="D277" t="s">
-        <v>171</v>
-      </c>
-      <c r="E277" t="s">
-        <v>78</v>
-      </c>
-      <c r="F277" t="s">
-        <v>78</v>
+        <v>433</v>
+      </c>
+      <c r="G277" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>240</v>
       </c>
+      <c r="B278" t="s">
+        <v>169</v>
+      </c>
+      <c r="C278" t="s">
+        <v>77</v>
+      </c>
       <c r="D278" t="s">
         <v>171</v>
       </c>
       <c r="E278" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F278" t="s">
-        <v>208</v>
-      </c>
-      <c r="G278" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>240</v>
       </c>
-      <c r="B279" t="s">
-        <v>213</v>
-      </c>
-      <c r="C279" t="s">
-        <v>4</v>
-      </c>
       <c r="D279" t="s">
         <v>171</v>
       </c>
       <c r="E279" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="F279" t="s">
-        <v>5</v>
+        <v>208</v>
+      </c>
+      <c r="G279" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -9468,19 +9475,19 @@
         <v>240</v>
       </c>
       <c r="B280" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C280" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="D280" t="s">
         <v>171</v>
       </c>
       <c r="E280" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="F280" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -9488,22 +9495,19 @@
         <v>240</v>
       </c>
       <c r="B281" t="s">
-        <v>496</v>
+        <v>214</v>
       </c>
       <c r="C281" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="D281" t="s">
         <v>171</v>
       </c>
       <c r="E281" t="s">
-        <v>497</v>
+        <v>215</v>
       </c>
       <c r="F281" t="s">
-        <v>176</v>
-      </c>
-      <c r="G281" t="s">
-        <v>498</v>
+        <v>141</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -9511,19 +9515,22 @@
         <v>240</v>
       </c>
       <c r="B282" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C282" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="D282" t="s">
         <v>171</v>
       </c>
       <c r="E282" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
       <c r="F282" t="s">
-        <v>64</v>
+        <v>176</v>
+      </c>
+      <c r="G282" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -9531,19 +9538,19 @@
         <v>240</v>
       </c>
       <c r="B283" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C283" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D283" t="s">
         <v>171</v>
       </c>
       <c r="E283" t="s">
-        <v>376</v>
+        <v>212</v>
       </c>
       <c r="F283" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -9551,19 +9558,19 @@
         <v>240</v>
       </c>
       <c r="B284" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C284" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D284" t="s">
         <v>171</v>
       </c>
       <c r="E284" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="F284" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -9571,19 +9578,19 @@
         <v>240</v>
       </c>
       <c r="B285" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C285" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="D285" t="s">
         <v>171</v>
       </c>
       <c r="E285" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F285" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -9591,19 +9598,19 @@
         <v>240</v>
       </c>
       <c r="B286" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C286" t="s">
-        <v>427</v>
+        <v>31</v>
       </c>
       <c r="D286" t="s">
         <v>171</v>
       </c>
       <c r="E286" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F286" t="s">
-        <v>426</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -9611,19 +9618,19 @@
         <v>240</v>
       </c>
       <c r="B287" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C287" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="D287" t="s">
         <v>171</v>
       </c>
       <c r="E287" t="s">
-        <v>245</v>
+        <v>506</v>
       </c>
       <c r="F287" t="s">
-        <v>508</v>
+        <v>426</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -9631,22 +9638,19 @@
         <v>240</v>
       </c>
       <c r="B288" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C288" t="s">
-        <v>31</v>
+        <v>389</v>
       </c>
       <c r="D288" t="s">
         <v>171</v>
       </c>
       <c r="E288" t="s">
-        <v>510</v>
+        <v>245</v>
       </c>
       <c r="F288" t="s">
-        <v>115</v>
-      </c>
-      <c r="G288" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -9663,10 +9667,13 @@
         <v>171</v>
       </c>
       <c r="E289" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F289" t="s">
-        <v>32</v>
+        <v>115</v>
+      </c>
+      <c r="G289" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -9674,7 +9681,7 @@
         <v>240</v>
       </c>
       <c r="B290" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C290" t="s">
         <v>31</v>
@@ -9683,13 +9690,10 @@
         <v>171</v>
       </c>
       <c r="E290" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F290" t="s">
-        <v>115</v>
-      </c>
-      <c r="G290" t="s">
-        <v>511</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -9706,10 +9710,13 @@
         <v>171</v>
       </c>
       <c r="E291" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F291" t="s">
-        <v>32</v>
+        <v>115</v>
+      </c>
+      <c r="G291" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -9717,7 +9724,7 @@
         <v>240</v>
       </c>
       <c r="B292" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C292" t="s">
         <v>31</v>
@@ -9726,13 +9733,10 @@
         <v>171</v>
       </c>
       <c r="E292" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F292" t="s">
-        <v>115</v>
-      </c>
-      <c r="G292" t="s">
-        <v>515</v>
+        <v>32</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -9749,10 +9753,13 @@
         <v>171</v>
       </c>
       <c r="E293" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F293" t="s">
-        <v>32</v>
+        <v>115</v>
+      </c>
+      <c r="G293" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -9760,22 +9767,19 @@
         <v>240</v>
       </c>
       <c r="B294" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C294" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D294" t="s">
         <v>171</v>
       </c>
       <c r="E294" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F294" t="s">
-        <v>115</v>
-      </c>
-      <c r="G294" t="s">
-        <v>515</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -9792,27 +9796,33 @@
         <v>171</v>
       </c>
       <c r="E295" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F295" t="s">
-        <v>5</v>
+        <v>115</v>
+      </c>
+      <c r="G295" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>349</v>
+        <v>240</v>
       </c>
       <c r="B296" t="s">
-        <v>224</v>
+        <v>516</v>
       </c>
       <c r="C296" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="D296" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="E296" t="s">
+        <v>512</v>
       </c>
       <c r="F296" t="s">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -9820,59 +9830,56 @@
         <v>349</v>
       </c>
       <c r="B297" t="s">
-        <v>517</v>
+        <v>224</v>
       </c>
       <c r="C297" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="D297" t="s">
-        <v>216</v>
-      </c>
-      <c r="E297" t="s">
-        <v>518</v>
+        <v>175</v>
       </c>
       <c r="F297" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="B298" t="s">
-        <v>224</v>
+        <v>517</v>
       </c>
       <c r="C298" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="D298" t="s">
-        <v>175</v>
+        <v>216</v>
+      </c>
+      <c r="E298" t="s">
+        <v>518</v>
       </c>
       <c r="F298" t="s">
-        <v>175</v>
-      </c>
-      <c r="G298" t="s">
-        <v>520</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>521</v>
+        <v>284</v>
       </c>
       <c r="B299" t="s">
-        <v>532</v>
+        <v>224</v>
       </c>
       <c r="C299" t="s">
-        <v>522</v>
+        <v>224</v>
       </c>
       <c r="D299" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="F299" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="G299" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -9880,56 +9887,59 @@
         <v>521</v>
       </c>
       <c r="B300" t="s">
-        <v>178</v>
+        <v>532</v>
       </c>
       <c r="C300" t="s">
-        <v>179</v>
+        <v>522</v>
       </c>
       <c r="D300" t="s">
         <v>296</v>
       </c>
-      <c r="E300" t="s">
-        <v>180</v>
-      </c>
       <c r="F300" t="s">
-        <v>36</v>
+        <v>296</v>
+      </c>
+      <c r="G300" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B301" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C301" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="D301" t="s">
         <v>296</v>
       </c>
       <c r="E301" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="F301" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>522</v>
       </c>
+      <c r="B302" t="s">
+        <v>169</v>
+      </c>
+      <c r="C302" t="s">
+        <v>77</v>
+      </c>
       <c r="D302" t="s">
         <v>296</v>
       </c>
       <c r="E302" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F302" t="s">
-        <v>208</v>
-      </c>
-      <c r="G302" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -9940,33 +9950,30 @@
         <v>296</v>
       </c>
       <c r="E303" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F303" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G303" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>522</v>
       </c>
-      <c r="B304" t="s">
-        <v>36</v>
-      </c>
-      <c r="C304" t="s">
-        <v>40</v>
-      </c>
       <c r="D304" t="s">
         <v>296</v>
       </c>
       <c r="E304" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F304" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="G304" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -9974,7 +9981,7 @@
         <v>522</v>
       </c>
       <c r="B305" t="s">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="C305" t="s">
         <v>40</v>
@@ -9983,13 +9990,10 @@
         <v>296</v>
       </c>
       <c r="E305" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="F305" t="s">
         <v>32</v>
-      </c>
-      <c r="G305" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -9997,22 +10001,22 @@
         <v>522</v>
       </c>
       <c r="B306" t="s">
-        <v>195</v>
+        <v>303</v>
       </c>
       <c r="C306" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D306" t="s">
         <v>296</v>
       </c>
       <c r="E306" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="F306" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G306" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -10020,7 +10024,7 @@
         <v>522</v>
       </c>
       <c r="B307" t="s">
-        <v>525</v>
+        <v>195</v>
       </c>
       <c r="C307" t="s">
         <v>130</v>
@@ -10043,7 +10047,7 @@
         <v>522</v>
       </c>
       <c r="B308" t="s">
-        <v>300</v>
+        <v>525</v>
       </c>
       <c r="C308" t="s">
         <v>130</v>
@@ -10052,10 +10056,13 @@
         <v>296</v>
       </c>
       <c r="E308" t="s">
-        <v>301</v>
+        <v>194</v>
       </c>
       <c r="F308" t="s">
         <v>152</v>
+      </c>
+      <c r="G308" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -10063,22 +10070,19 @@
         <v>522</v>
       </c>
       <c r="B309" t="s">
-        <v>441</v>
+        <v>300</v>
       </c>
       <c r="C309" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="D309" t="s">
         <v>296</v>
       </c>
       <c r="E309" t="s">
-        <v>526</v>
+        <v>301</v>
       </c>
       <c r="F309" t="s">
-        <v>176</v>
-      </c>
-      <c r="G309" t="s">
-        <v>527</v>
+        <v>152</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -10086,19 +10090,22 @@
         <v>522</v>
       </c>
       <c r="B310" t="s">
-        <v>528</v>
+        <v>441</v>
       </c>
       <c r="C310" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="D310" t="s">
         <v>296</v>
       </c>
       <c r="E310" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F310" t="s">
-        <v>152</v>
+        <v>176</v>
+      </c>
+      <c r="G310" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -10106,22 +10113,19 @@
         <v>522</v>
       </c>
       <c r="B311" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="C311" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="D311" t="s">
         <v>296</v>
       </c>
       <c r="E311" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="F311" t="s">
-        <v>176</v>
-      </c>
-      <c r="G311" t="s">
-        <v>530</v>
+        <v>152</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -10129,73 +10133,79 @@
         <v>522</v>
       </c>
       <c r="B312" t="s">
-        <v>178</v>
+        <v>478</v>
       </c>
       <c r="C312" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="D312" t="s">
         <v>296</v>
       </c>
       <c r="E312" t="s">
-        <v>180</v>
+        <v>479</v>
       </c>
       <c r="F312" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="G312" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>522</v>
       </c>
+      <c r="B313" t="s">
+        <v>178</v>
+      </c>
+      <c r="C313" t="s">
+        <v>179</v>
+      </c>
       <c r="D313" t="s">
         <v>296</v>
       </c>
       <c r="E313" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F313" t="s">
         <v>36</v>
       </c>
-      <c r="G313" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>534</v>
-      </c>
-      <c r="B314" t="s">
-        <v>169</v>
-      </c>
-      <c r="C314" t="s">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="D314" t="s">
-        <v>534</v>
+        <v>296</v>
       </c>
       <c r="E314" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="F314" t="s">
-        <v>78</v>
+        <v>36</v>
+      </c>
+      <c r="G314" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>534</v>
       </c>
+      <c r="B315" t="s">
+        <v>169</v>
+      </c>
+      <c r="C315" t="s">
+        <v>77</v>
+      </c>
       <c r="D315" t="s">
         <v>534</v>
       </c>
       <c r="E315" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F315" t="s">
-        <v>208</v>
-      </c>
-      <c r="G315" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -10206,33 +10216,30 @@
         <v>534</v>
       </c>
       <c r="E316" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F316" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G316" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>534</v>
       </c>
-      <c r="B317" t="s">
-        <v>182</v>
-      </c>
-      <c r="C317" t="s">
-        <v>87</v>
-      </c>
       <c r="D317" t="s">
         <v>534</v>
       </c>
       <c r="E317" t="s">
-        <v>535</v>
+        <v>170</v>
       </c>
       <c r="F317" t="s">
-        <v>75</v>
+        <v>176</v>
+      </c>
+      <c r="G317" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -10240,19 +10247,19 @@
         <v>534</v>
       </c>
       <c r="B318" t="s">
-        <v>472</v>
+        <v>182</v>
       </c>
       <c r="C318" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D318" t="s">
         <v>534</v>
       </c>
       <c r="E318" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="F318" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -10260,22 +10267,19 @@
         <v>534</v>
       </c>
       <c r="B319" t="s">
-        <v>311</v>
+        <v>472</v>
       </c>
       <c r="C319" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="D319" t="s">
         <v>534</v>
       </c>
       <c r="E319" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="F319" t="s">
-        <v>176</v>
-      </c>
-      <c r="G319" t="s">
-        <v>536</v>
+        <v>32</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -10283,19 +10287,22 @@
         <v>534</v>
       </c>
       <c r="B320" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="C320" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="D320" t="s">
         <v>534</v>
       </c>
       <c r="E320" t="s">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="F320" t="s">
-        <v>36</v>
+        <v>176</v>
+      </c>
+      <c r="G320" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -10303,96 +10310,99 @@
         <v>534</v>
       </c>
       <c r="B321" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="C321" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D321" t="s">
         <v>534</v>
       </c>
       <c r="E321" t="s">
+        <v>232</v>
+      </c>
+      <c r="F321" t="s">
         <v>36</v>
       </c>
-      <c r="F321" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>534</v>
       </c>
       <c r="B322" t="s">
-        <v>537</v>
+        <v>36</v>
       </c>
       <c r="C322" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="D322" t="s">
         <v>534</v>
       </c>
       <c r="E322" t="s">
+        <v>36</v>
+      </c>
+      <c r="F322" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>534</v>
+      </c>
+      <c r="B323" t="s">
+        <v>537</v>
+      </c>
+      <c r="C323" t="s">
+        <v>275</v>
+      </c>
+      <c r="D323" t="s">
+        <v>534</v>
+      </c>
+      <c r="E323" t="s">
         <v>479</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F323" t="s">
         <v>176</v>
       </c>
-      <c r="G322" s="1" t="s">
+      <c r="G323" s="1" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>192</v>
-      </c>
-      <c r="C323" t="s">
-        <v>201</v>
-      </c>
-      <c r="D323" t="s">
-        <v>201</v>
-      </c>
-      <c r="F323" t="s">
-        <v>201</v>
-      </c>
-      <c r="G323" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>540</v>
-      </c>
-      <c r="B324" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="C324" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="D324" t="s">
-        <v>541</v>
-      </c>
-      <c r="E324" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="F324" t="s">
-        <v>78</v>
+        <v>201</v>
+      </c>
+      <c r="G324" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>540</v>
       </c>
+      <c r="B325" t="s">
+        <v>169</v>
+      </c>
+      <c r="C325" t="s">
+        <v>77</v>
+      </c>
       <c r="D325" t="s">
         <v>541</v>
       </c>
       <c r="E325" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F325" t="s">
-        <v>208</v>
-      </c>
-      <c r="G325" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -10403,33 +10413,30 @@
         <v>541</v>
       </c>
       <c r="E326" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F326" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G326" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>540</v>
       </c>
-      <c r="B327" t="s">
-        <v>178</v>
-      </c>
-      <c r="C327" t="s">
-        <v>179</v>
-      </c>
       <c r="D327" t="s">
         <v>541</v>
       </c>
       <c r="E327" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="F327" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="G327" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -10437,68 +10444,65 @@
         <v>540</v>
       </c>
       <c r="B328" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C328" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="D328" t="s">
         <v>541</v>
       </c>
       <c r="E328" t="s">
-        <v>379</v>
+        <v>36</v>
       </c>
       <c r="F328" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>540</v>
       </c>
       <c r="B329" t="s">
-        <v>484</v>
+        <v>182</v>
       </c>
       <c r="C329" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D329" t="s">
         <v>541</v>
       </c>
       <c r="E329" t="s">
-        <v>485</v>
+        <v>379</v>
       </c>
       <c r="F329" t="s">
-        <v>149</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>540</v>
       </c>
       <c r="B330" t="s">
-        <v>173</v>
+        <v>484</v>
       </c>
       <c r="C330" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D330" t="s">
         <v>541</v>
       </c>
       <c r="E330" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="F330" t="s">
-        <v>176</v>
-      </c>
-      <c r="G330" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>540</v>
       </c>
@@ -10517,8 +10521,8 @@
       <c r="F331" t="s">
         <v>176</v>
       </c>
-      <c r="G331" s="1" t="s">
-        <v>544</v>
+      <c r="G331" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -10526,42 +10530,45 @@
         <v>540</v>
       </c>
       <c r="B332" t="s">
-        <v>545</v>
+        <v>173</v>
       </c>
       <c r="C332" t="s">
-        <v>546</v>
+        <v>177</v>
       </c>
       <c r="D332" t="s">
         <v>541</v>
       </c>
       <c r="E332" t="s">
-        <v>547</v>
+        <v>464</v>
       </c>
       <c r="F332" t="s">
         <v>176</v>
       </c>
       <c r="G332" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>540</v>
+      </c>
+      <c r="B333" t="s">
+        <v>545</v>
+      </c>
+      <c r="C333" t="s">
+        <v>546</v>
+      </c>
+      <c r="D333" t="s">
+        <v>541</v>
+      </c>
+      <c r="E333" t="s">
+        <v>547</v>
+      </c>
+      <c r="F333" t="s">
+        <v>176</v>
+      </c>
+      <c r="G333" s="1" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>549</v>
-      </c>
-      <c r="B333" t="s">
-        <v>235</v>
-      </c>
-      <c r="C333" t="s">
-        <v>133</v>
-      </c>
-      <c r="D333" t="s">
-        <v>550</v>
-      </c>
-      <c r="E333" t="s">
-        <v>235</v>
-      </c>
-      <c r="F333" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -10569,19 +10576,19 @@
         <v>549</v>
       </c>
       <c r="B334" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="C334" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="D334" t="s">
         <v>550</v>
       </c>
       <c r="E334" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="F334" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -10589,73 +10596,76 @@
         <v>549</v>
       </c>
       <c r="B335" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C335" t="s">
-        <v>551</v>
+        <v>31</v>
       </c>
       <c r="D335" t="s">
         <v>550</v>
       </c>
       <c r="E335" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F335" t="s">
-        <v>552</v>
+        <v>32</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>553</v>
+        <v>549</v>
+      </c>
+      <c r="B336" t="s">
+        <v>9</v>
       </c>
       <c r="C336" t="s">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="D336" t="s">
-        <v>201</v>
+        <v>550</v>
+      </c>
+      <c r="E336" t="s">
+        <v>9</v>
       </c>
       <c r="F336" t="s">
-        <v>201</v>
-      </c>
-      <c r="G336" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>230</v>
-      </c>
-      <c r="B337" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="C337" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="D337" t="s">
-        <v>572</v>
-      </c>
-      <c r="E337" t="s">
-        <v>573</v>
+        <v>201</v>
       </c>
       <c r="F337" t="s">
-        <v>78</v>
+        <v>201</v>
+      </c>
+      <c r="G337" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>230</v>
       </c>
+      <c r="B338" t="s">
+        <v>208</v>
+      </c>
+      <c r="C338" t="s">
+        <v>77</v>
+      </c>
       <c r="D338" t="s">
         <v>572</v>
       </c>
       <c r="E338" t="s">
-        <v>208</v>
+        <v>573</v>
       </c>
       <c r="F338" t="s">
-        <v>208</v>
-      </c>
-      <c r="G338" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -10666,73 +10676,70 @@
         <v>572</v>
       </c>
       <c r="E339" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F339" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G339" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>230</v>
       </c>
-      <c r="B340" t="s">
-        <v>173</v>
-      </c>
-      <c r="C340" t="s">
-        <v>177</v>
-      </c>
       <c r="D340" t="s">
         <v>572</v>
       </c>
       <c r="E340" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F340" t="s">
         <v>176</v>
       </c>
       <c r="G340" t="s">
-        <v>574</v>
+        <v>242</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>230</v>
       </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
+      <c r="C341" t="s">
+        <v>177</v>
+      </c>
       <c r="D341" t="s">
         <v>572</v>
       </c>
       <c r="E341" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="F341" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="G341" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>230</v>
       </c>
-      <c r="B342" t="s">
-        <v>36</v>
-      </c>
-      <c r="C342" t="s">
-        <v>31</v>
-      </c>
       <c r="D342" t="s">
         <v>572</v>
       </c>
       <c r="E342" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F342" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="G342" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -10740,22 +10747,19 @@
         <v>230</v>
       </c>
       <c r="B343" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="C343" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="D343" t="s">
         <v>572</v>
       </c>
       <c r="E343" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="F343" t="s">
-        <v>176</v>
-      </c>
-      <c r="G343" t="s">
-        <v>576</v>
+        <v>32</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -10763,19 +10767,22 @@
         <v>230</v>
       </c>
       <c r="B344" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="C344" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="D344" t="s">
         <v>572</v>
       </c>
       <c r="E344" t="s">
-        <v>577</v>
+        <v>263</v>
       </c>
       <c r="F344" t="s">
-        <v>115</v>
+        <v>176</v>
+      </c>
+      <c r="G344" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -10783,19 +10790,19 @@
         <v>230</v>
       </c>
       <c r="B345" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C345" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="D345" t="s">
         <v>572</v>
       </c>
       <c r="E345" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F345" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -10803,70 +10810,73 @@
         <v>230</v>
       </c>
       <c r="B346" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="C346" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D346" t="s">
         <v>572</v>
       </c>
       <c r="E346" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F346" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>230</v>
       </c>
+      <c r="B347" t="s">
+        <v>182</v>
+      </c>
+      <c r="C347" t="s">
+        <v>148</v>
+      </c>
       <c r="D347" t="s">
         <v>572</v>
       </c>
       <c r="E347" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F347" t="s">
         <v>152</v>
-      </c>
-      <c r="G347" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>230</v>
       </c>
-      <c r="C348" t="s">
-        <v>230</v>
-      </c>
       <c r="D348" t="s">
         <v>572</v>
       </c>
       <c r="E348" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F348" t="s">
-        <v>52</v>
+        <v>152</v>
+      </c>
+      <c r="G348" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>230</v>
       </c>
+      <c r="C349" t="s">
+        <v>230</v>
+      </c>
       <c r="D349" t="s">
         <v>572</v>
       </c>
       <c r="E349" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F349" t="s">
-        <v>42</v>
-      </c>
-      <c r="G349" t="s">
-        <v>590</v>
+        <v>52</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -10874,16 +10884,16 @@
         <v>230</v>
       </c>
       <c r="D350" t="s">
-        <v>52</v>
+        <v>572</v>
       </c>
       <c r="E350" t="s">
-        <v>54</v>
+        <v>589</v>
       </c>
       <c r="F350" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="G350" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -10894,50 +10904,50 @@
         <v>52</v>
       </c>
       <c r="E351" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F351" t="s">
-        <v>583</v>
+        <v>115</v>
       </c>
       <c r="G351" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>230</v>
       </c>
-      <c r="B352" t="s">
-        <v>428</v>
-      </c>
-      <c r="C352" t="s">
-        <v>179</v>
-      </c>
       <c r="D352" t="s">
         <v>52</v>
       </c>
       <c r="E352" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F352" t="s">
-        <v>115</v>
+        <v>583</v>
+      </c>
+      <c r="G352" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>230</v>
       </c>
+      <c r="B353" t="s">
+        <v>428</v>
+      </c>
+      <c r="C353" t="s">
+        <v>179</v>
+      </c>
       <c r="D353" t="s">
         <v>52</v>
       </c>
       <c r="E353" t="s">
-        <v>585</v>
+        <v>56</v>
       </c>
       <c r="F353" t="s">
-        <v>152</v>
-      </c>
-      <c r="G353" t="s">
-        <v>569</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -10948,32 +10958,49 @@
         <v>52</v>
       </c>
       <c r="E354" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F354" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="G354" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>230</v>
       </c>
-      <c r="B355" t="s">
-        <v>235</v>
-      </c>
-      <c r="C355" t="s">
-        <v>133</v>
-      </c>
       <c r="D355" t="s">
         <v>52</v>
       </c>
       <c r="E355" t="s">
+        <v>586</v>
+      </c>
+      <c r="F355" t="s">
+        <v>82</v>
+      </c>
+      <c r="G355" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>230</v>
+      </c>
+      <c r="B356" t="s">
         <v>235</v>
       </c>
-      <c r="F355" t="s">
+      <c r="C356" t="s">
+        <v>133</v>
+      </c>
+      <c r="D356" t="s">
+        <v>52</v>
+      </c>
+      <c r="E356" t="s">
+        <v>235</v>
+      </c>
+      <c r="F356" t="s">
         <v>115</v>
       </c>
     </row>
@@ -11189,15 +11216,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100807AD908AA31E7469CBF52F21763B6B3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad5b26696a45b158ba332352bb803f07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d91489b-5c4b-461a-ab03-156d22c74744" xmlns:ns4="a9165288-e3f3-4f27-b2a7-e929287acb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b15a069fc30e624c02c2dc252acbe21" ns3:_="" ns4:_="">
     <xsd:import namespace="1d91489b-5c4b-461a-ab03-156d22c74744"/>
@@ -11406,6 +11424,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5AE3E31-B1E2-41D6-8916-57EA78384912}">
   <ds:schemaRefs>
@@ -11424,14 +11451,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B471AFD-6915-401F-8226-96A0869F45F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E0A4AE8-2609-470F-9588-830B70430B96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11448,4 +11467,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B471AFD-6915-401F-8226-96A0869F45F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>